--- a/Аспекты тестов/Набор тестов для главной функции.xlsx
+++ b/Аспекты тестов/Набор тестов для главной функции.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Наименование</t>
   </si>
@@ -746,6 +746,16 @@
 "}"
 , "someFunction"
 </t>
+  </si>
+  <si>
+    <t>Вызов функции похож на заголовок определения.</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"    if(!someFunction()) return 0;"
+"}"
+, "someFunction"</t>
   </si>
 </sst>
 </file>
@@ -6678,7 +6688,7 @@
   <dimension ref="A1:IV55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10949,9 +10959,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="35"/>
+    <row r="27" spans="1:2" ht="117" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
